--- a/va_facility_data_2025-02-20/Joliet VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Joliet%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Joliet VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Joliet%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfec29d35429248108f7ace85f4940ef7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R56c6739f3dd3463396475c6ccffc0e95"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R985fc06bcf52406481bd19d50e6b12ee"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4055a3e1d7c049eabd4edea7828a79d4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R040710a4415145deaa0c9bd9d5e1eff1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re36365b867a24f199751b94098780d27"/>
   </x:sheets>
 </x:workbook>
 </file>
